--- a/MS Projects/Palmer amaranth Resistance/Data Analysis - PRE/LOGIT Tukey HSD_HERBxDOSE.xlsx
+++ b/MS Projects/Palmer amaranth Resistance/Data Analysis - PRE/LOGIT Tukey HSD_HERBxDOSE.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/MS Projects/Palmer amaranth Resistance/Data Analysis - PRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AD9E8FF486E1BB4B574382AF92509B0CAA1B6DD9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26F73AFD-61CE-44E1-85A5-7856BCAFF84D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AD9E8FF486E1BB4B574382AF92509B0CAA1B6DD9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9398CB3-3D7F-43EA-9B8E-B9C2D763E2DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -422,12 +425,12 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -479,7 +482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -505,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -531,7 +534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -557,7 +560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -583,7 +586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -609,7 +612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -635,7 +638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -661,7 +664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -687,7 +690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -713,7 +716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -739,7 +742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -765,7 +768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -791,7 +794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -817,7 +820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -844,6 +847,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
